--- a/Data handler/full_model/General.xlsx
+++ b/Data handler/full_model/General.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +573,14 @@
         <v>272.1035971223022</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>213.273381294964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,7 +588,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,6 +668,14 @@
         <v>213.3333333333333</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>304.7619047619048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,7 +683,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1368000000</v>
+        <v>2280000000</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -716,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1420800000</v>
+        <v>2368000000</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -724,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1500000000</v>
+        <v>2500000000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -732,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1500000000</v>
+        <v>2500000000</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -740,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1516800000</v>
+        <v>2528000000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -748,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1567200000</v>
+        <v>2612000000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -756,7 +772,15 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1584000000</v>
+        <v>2640000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2640000000</v>
       </c>
     </row>
   </sheetData>
@@ -765,8 +789,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -786,7 +810,6 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -839,11 +862,6 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -997,9 +1015,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C998A4D-F01F-413D-9E71-4E93E977F144}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD0831D-A327-4F88-8790-9A53A5DCA666}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7B860A-43EC-4E50-A94D-57EF16B2736B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5558899-AA77-4963-A276-F3C536E1F4E6}"/>
 </file>
--- a/Data handler/full_model/General.xlsx
+++ b/Data handler/full_model/General.xlsx
@@ -789,8 +789,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -810,6 +810,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -862,6 +863,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1015,7 +1021,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD0831D-A327-4F88-8790-9A53A5DCA666}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7467A7-F8C9-4609-89DB-931717826B7F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
